--- a/excels/monster.xlsx
+++ b/excels/monster.xlsx
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
